--- a/ExampleData.xlsx
+++ b/ExampleData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,13 +119,32 @@
   </si>
   <si>
     <t>血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟馗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS003</t>
+  </si>
+  <si>
+    <t>厉鬼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,6 +672,76 @@
       </c>
       <c r="K4" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
+        <v>352</v>
+      </c>
+      <c r="E5" s="2">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2">
+        <v>432</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
